--- a/documents/04-Analyse-safe_copy-iteration1-18-12.xlsx
+++ b/documents/04-Analyse-safe_copy-iteration1-18-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hohenberg/project/Masterthesis/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FC005F-F0EB-8942-98D0-85B1FDE76271}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC6FDD7-EA28-D347-8CA8-BC80EF024844}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{542D3738-8151-B74A-991A-6C4FC1990955}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" activeTab="1" xr2:uid="{542D3738-8151-B74A-991A-6C4FC1990955}"/>
   </bookViews>
   <sheets>
     <sheet name="Charakterisierung" sheetId="4" r:id="rId1"/>
@@ -3538,8 +3538,8 @@
   <dimension ref="A1:BI29"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN28" sqref="AN28"/>
+      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR20" sqref="AR20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4333,9 +4333,12 @@
       <c r="M20" t="s">
         <v>18</v>
       </c>
+      <c r="AR20" t="s">
+        <v>18</v>
+      </c>
       <c r="BI20" s="22">
         <f>COUNTA(B20:BH20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -4349,9 +4352,6 @@
       <c r="AM21" s="46"/>
       <c r="AP21"/>
       <c r="AQ21"/>
-      <c r="AR21" t="s">
-        <v>18</v>
-      </c>
       <c r="AT21"/>
       <c r="AU21"/>
       <c r="AV21"/>
@@ -4359,7 +4359,7 @@
       <c r="BH21" s="46"/>
       <c r="BI21" s="22">
         <f>COUNTA(B21:BH21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -4521,9 +4521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493611EB-B36F-BC49-9EE1-00D6FD60C398}">
   <dimension ref="A1:BH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B40" sqref="B40"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
